--- a/Project_1/FavoriteNumbers.xlsx
+++ b/Project_1/FavoriteNumbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annetteraven/Documents/GitHub/Stats/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF66D7BC-C663-4D77-929C-31A196E1072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A1C5D-F049-4C46-98C4-498FCCA5997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histogram" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -41,40 +41,70 @@
     <t xml:space="preserve">Count of  Favorite Number </t>
   </si>
   <si>
-    <t>1-100</t>
+    <t>1-50</t>
   </si>
   <si>
-    <t>101-200</t>
+    <t>51-100</t>
   </si>
   <si>
-    <t>201-300</t>
+    <t>101-150</t>
   </si>
   <si>
-    <t>301-400</t>
+    <t>151-200</t>
   </si>
   <si>
-    <t>401-500</t>
+    <t>201-250</t>
   </si>
   <si>
-    <t>501-600</t>
+    <t>251-300</t>
   </si>
   <si>
-    <t>601-700</t>
+    <t>301-350</t>
   </si>
   <si>
-    <t>701-800</t>
+    <t>351-400</t>
   </si>
   <si>
-    <t>801-900</t>
+    <t>401-450</t>
   </si>
   <si>
-    <t>901-1000</t>
+    <t>451-500</t>
+  </si>
+  <si>
+    <t>501-550</t>
+  </si>
+  <si>
+    <t>551-600</t>
+  </si>
+  <si>
+    <t>601-650</t>
+  </si>
+  <si>
+    <t>651-700</t>
+  </si>
+  <si>
+    <t>701-750</t>
+  </si>
+  <si>
+    <t>751-800</t>
+  </si>
+  <si>
+    <t>801-850</t>
+  </si>
+  <si>
+    <t>851-900</t>
+  </si>
+  <si>
+    <t>901-950</t>
+  </si>
+  <si>
+    <t>951-1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -759,77 +789,137 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Histogram!$A$4:$A$14</c:f>
+              <c:f>Histogram!$A$4:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1-100</c:v>
+                  <c:v>1-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101-200</c:v>
+                  <c:v>51-100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201-300</c:v>
+                  <c:v>101-150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301-400</c:v>
+                  <c:v>151-200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>401-500</c:v>
+                  <c:v>201-250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>501-600</c:v>
+                  <c:v>251-300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>601-700</c:v>
+                  <c:v>301-350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>701-800</c:v>
+                  <c:v>351-400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>801-900</c:v>
+                  <c:v>401-450</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>901-1000</c:v>
+                  <c:v>451-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501-550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>551-600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>601-650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>651-700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>701-750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>751-800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>801-850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>851-900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>901-950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>951-1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Histogram!$B$4:$B$14</c:f>
+              <c:f>Histogram!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.1018981018981019</c:v>
+                  <c:v>4.7952047952047952E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8901098901098897E-2</c:v>
+                  <c:v>5.3946053946053944E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8901098901098897E-2</c:v>
+                  <c:v>4.7952047952047952E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10989010989010989</c:v>
+                  <c:v>5.0949050949050952E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1028971028971029</c:v>
+                  <c:v>4.8951048951048952E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8901098901098897E-2</c:v>
+                  <c:v>4.9950049950049952E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1008991008991009</c:v>
+                  <c:v>5.8941058941058944E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2907092907092911E-2</c:v>
+                  <c:v>5.0949050949050952E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8901098901098897E-2</c:v>
+                  <c:v>4.295704295704296E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5904095904095904E-2</c:v>
+                  <c:v>5.9940059940059943E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7952047952047952E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0949050949050952E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9950049950049952E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0949050949050952E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7952047952047952E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4955044955044952E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.195804195804196E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6943056943056944E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0949050949050952E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4955044955044952E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,16 +1696,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>46036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1644,7 +1734,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jack" refreshedDate="44607.024293402777" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1001">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jack" refreshedDate="44607.024293402777" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1001" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B1002" sheet="FavoriteNumbers"/>
   </cacheSource>
@@ -2292,19 +2382,29 @@
         <n v="649"/>
       </sharedItems>
       <fieldGroup base="1">
-        <rangePr startNum="1" endNum="1000" groupInterval="100"/>
-        <groupItems count="12">
+        <rangePr startNum="1" endNum="1000" groupInterval="50"/>
+        <groupItems count="22">
           <s v="&lt;1"/>
-          <s v="1-100"/>
-          <s v="101-200"/>
-          <s v="201-300"/>
-          <s v="301-400"/>
-          <s v="401-500"/>
-          <s v="501-600"/>
-          <s v="601-700"/>
-          <s v="701-800"/>
-          <s v="801-900"/>
-          <s v="901-1000"/>
+          <s v="1-50"/>
+          <s v="51-100"/>
+          <s v="101-150"/>
+          <s v="151-200"/>
+          <s v="201-250"/>
+          <s v="251-300"/>
+          <s v="301-350"/>
+          <s v="351-400"/>
+          <s v="401-450"/>
+          <s v="451-500"/>
+          <s v="501-550"/>
+          <s v="551-600"/>
+          <s v="601-650"/>
+          <s v="651-700"/>
+          <s v="701-750"/>
+          <s v="751-800"/>
+          <s v="801-850"/>
+          <s v="851-900"/>
+          <s v="901-950"/>
+          <s v="951-1000"/>
           <s v="&gt;1001"/>
         </groupItems>
       </fieldGroup>
@@ -2319,7 +2419,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1001">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1001">
   <r>
     <n v="0"/>
     <x v="0"/>
@@ -6328,12 +6428,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="13">
+      <items count="23">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6346,6 +6446,16 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6353,7 +6463,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="21">
     <i>
       <x v="1"/>
     </i>
@@ -6383,6 +6493,36 @@
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i t="grand">
       <x/>
@@ -6713,20 +6853,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6734,91 +6874,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>0.1018981018981019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.7952047952047952E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.3946053946053944E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.7952047952047952E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>0.10989010989010989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.0949050949050952E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>0.1028971028971029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.8951048951048952E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.9950049950049952E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>0.1008991008991009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.8941058941058944E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>9.2907092907092911E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.0949050949050952E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.295704295704296E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>9.5904095904095904E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.9940059940059943E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4.7952047952047952E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0949050949050952E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.9950049950049952E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.0949050949050952E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.7952047952047952E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.4955044955044952E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.195804195804196E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5.6943056943056944E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.0949050949050952E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4.4955044955044952E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6830,16 +7050,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B1002"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6847,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6855,7 +7075,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6863,7 +7083,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6871,7 +7091,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6879,7 +7099,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6887,7 +7107,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6895,7 +7115,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6903,7 +7123,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6911,7 +7131,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6919,7 +7139,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6927,7 +7147,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6935,7 +7155,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6943,7 +7163,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6951,7 +7171,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6959,7 +7179,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6967,7 +7187,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6975,7 +7195,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6983,7 +7203,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6991,7 +7211,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6999,7 +7219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7007,7 +7227,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7015,7 +7235,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7023,7 +7243,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7031,7 +7251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7039,7 +7259,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7047,7 +7267,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7055,7 +7275,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7063,7 +7283,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7071,7 +7291,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7079,7 +7299,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7087,7 +7307,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7095,7 +7315,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7103,7 +7323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7111,7 +7331,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7119,7 +7339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7127,7 +7347,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7135,7 +7355,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7143,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7151,7 +7371,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7159,7 +7379,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7167,7 +7387,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7175,7 +7395,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7183,7 +7403,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7191,7 +7411,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7199,7 +7419,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7207,7 +7427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7215,7 +7435,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7223,7 +7443,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7231,7 +7451,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7239,7 +7459,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7247,7 +7467,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -7255,7 +7475,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7263,7 +7483,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7271,7 +7491,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7279,7 +7499,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7287,7 +7507,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7295,7 +7515,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7303,7 +7523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7311,7 +7531,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7319,7 +7539,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7327,7 +7547,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7335,7 +7555,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7343,7 +7563,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7351,7 +7571,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7359,7 +7579,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7367,7 +7587,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7375,7 +7595,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7383,7 +7603,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7391,7 +7611,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7399,7 +7619,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7407,7 +7627,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7415,7 +7635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7423,7 +7643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7431,7 +7651,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7439,7 +7659,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7447,7 +7667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7455,7 +7675,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7463,7 +7683,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7471,7 +7691,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7479,7 +7699,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7487,7 +7707,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7495,7 +7715,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7503,7 +7723,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7511,7 +7731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7519,7 +7739,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7527,7 +7747,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7535,7 +7755,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7543,7 +7763,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7551,7 +7771,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7559,7 +7779,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7567,7 +7787,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7575,7 +7795,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7583,7 +7803,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7591,7 +7811,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7599,7 +7819,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7607,7 +7827,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7615,7 +7835,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7623,7 +7843,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7631,7 +7851,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7639,7 +7859,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7647,7 +7867,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7655,7 +7875,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7663,7 +7883,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7671,7 +7891,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7679,7 +7899,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7687,7 +7907,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7695,7 +7915,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7703,7 +7923,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7711,7 +7931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7719,7 +7939,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7727,7 +7947,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7735,7 +7955,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7743,7 +7963,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7751,7 +7971,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7759,7 +7979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7767,7 +7987,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7775,7 +7995,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7783,7 +8003,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7791,7 +8011,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7799,7 +8019,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7807,7 +8027,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7815,7 +8035,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7823,7 +8043,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7831,7 +8051,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7839,7 +8059,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7847,7 +8067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7855,7 +8075,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7863,7 +8083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7871,7 +8091,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7879,7 +8099,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7887,7 +8107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7895,7 +8115,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7903,7 +8123,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7911,7 +8131,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7919,7 +8139,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7927,7 +8147,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7935,7 +8155,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7943,7 +8163,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7951,7 +8171,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7959,7 +8179,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7967,7 +8187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7975,7 +8195,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7983,7 +8203,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7991,7 +8211,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7999,7 +8219,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8007,7 +8227,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8015,7 +8235,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8023,7 +8243,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8031,7 +8251,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8039,7 +8259,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8047,7 +8267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -8055,7 +8275,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -8063,7 +8283,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -8071,7 +8291,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -8079,7 +8299,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -8087,7 +8307,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -8095,7 +8315,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -8103,7 +8323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -8111,7 +8331,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -8119,7 +8339,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -8127,7 +8347,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -8135,7 +8355,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -8143,7 +8363,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -8151,7 +8371,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -8159,7 +8379,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -8167,7 +8387,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8175,7 +8395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8183,7 +8403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8191,7 +8411,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8199,7 +8419,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8207,7 +8427,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8215,7 +8435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8223,7 +8443,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8231,7 +8451,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8239,7 +8459,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8247,7 +8467,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8255,7 +8475,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8263,7 +8483,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8271,7 +8491,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8279,7 +8499,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8287,7 +8507,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8295,7 +8515,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8303,7 +8523,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8311,7 +8531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8319,7 +8539,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -8327,7 +8547,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -8335,7 +8555,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -8343,7 +8563,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -8351,7 +8571,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -8359,7 +8579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -8367,7 +8587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -8375,7 +8595,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -8383,7 +8603,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8391,7 +8611,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8399,7 +8619,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8407,7 +8627,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -8415,7 +8635,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8423,7 +8643,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -8431,7 +8651,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -8439,7 +8659,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -8447,7 +8667,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -8455,7 +8675,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8463,7 +8683,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8471,7 +8691,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8479,7 +8699,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8487,7 +8707,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8495,7 +8715,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8503,7 +8723,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8511,7 +8731,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8519,7 +8739,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8527,7 +8747,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8535,7 +8755,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8543,7 +8763,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8551,7 +8771,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8559,7 +8779,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8567,7 +8787,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8575,7 +8795,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8583,7 +8803,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8591,7 +8811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8599,7 +8819,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8607,7 +8827,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8615,7 +8835,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8623,7 +8843,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8631,7 +8851,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8639,7 +8859,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8647,7 +8867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8655,7 +8875,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8663,7 +8883,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8671,7 +8891,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8679,7 +8899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8687,7 +8907,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8695,7 +8915,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8703,7 +8923,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8711,7 +8931,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8719,7 +8939,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8727,7 +8947,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8735,7 +8955,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8743,7 +8963,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8751,7 +8971,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8759,7 +8979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8767,7 +8987,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -8775,7 +8995,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -8783,7 +9003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -8791,7 +9011,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -8799,7 +9019,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -8807,7 +9027,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8815,7 +9035,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8823,7 +9043,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8831,7 +9051,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8839,7 +9059,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8847,7 +9067,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8855,7 +9075,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8863,7 +9083,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8871,7 +9091,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8879,7 +9099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8887,7 +9107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8895,7 +9115,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8903,7 +9123,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8911,7 +9131,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8919,7 +9139,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -8927,7 +9147,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -8935,7 +9155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -8943,7 +9163,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -8951,7 +9171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -8959,7 +9179,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8967,7 +9187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -8975,7 +9195,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -8983,7 +9203,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -8991,7 +9211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -8999,7 +9219,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9007,7 +9227,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9015,7 +9235,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9023,7 +9243,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9031,7 +9251,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9039,7 +9259,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9047,7 +9267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9055,7 +9275,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9063,7 +9283,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9071,7 +9291,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9079,7 +9299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -9087,7 +9307,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -9095,7 +9315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -9103,7 +9323,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -9111,7 +9331,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -9119,7 +9339,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -9127,7 +9347,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -9135,7 +9355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -9143,7 +9363,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -9151,7 +9371,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -9159,7 +9379,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -9167,7 +9387,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -9175,7 +9395,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -9183,7 +9403,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -9191,7 +9411,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -9199,7 +9419,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -9207,7 +9427,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
@@ -9215,7 +9435,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -9223,7 +9443,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -9231,7 +9451,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -9239,7 +9459,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
@@ -9247,7 +9467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>300</v>
       </c>
@@ -9255,7 +9475,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>301</v>
       </c>
@@ -9263,7 +9483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>302</v>
       </c>
@@ -9271,7 +9491,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>303</v>
       </c>
@@ -9279,7 +9499,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>304</v>
       </c>
@@ -9287,7 +9507,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>305</v>
       </c>
@@ -9295,7 +9515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>306</v>
       </c>
@@ -9303,7 +9523,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>307</v>
       </c>
@@ -9311,7 +9531,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>308</v>
       </c>
@@ -9319,7 +9539,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>309</v>
       </c>
@@ -9327,7 +9547,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>310</v>
       </c>
@@ -9335,7 +9555,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>311</v>
       </c>
@@ -9343,7 +9563,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>312</v>
       </c>
@@ -9351,7 +9571,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>313</v>
       </c>
@@ -9359,7 +9579,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>314</v>
       </c>
@@ -9367,7 +9587,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>315</v>
       </c>
@@ -9375,7 +9595,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>316</v>
       </c>
@@ -9383,7 +9603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>317</v>
       </c>
@@ -9391,7 +9611,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>318</v>
       </c>
@@ -9399,7 +9619,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>319</v>
       </c>
@@ -9407,7 +9627,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9415,7 +9635,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9423,7 +9643,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9431,7 +9651,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9439,7 +9659,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9447,7 +9667,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9455,7 +9675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9463,7 +9683,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9471,7 +9691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9479,7 +9699,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9487,7 +9707,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9495,7 +9715,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9503,7 +9723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9511,7 +9731,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9519,7 +9739,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9527,7 +9747,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9535,7 +9755,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9543,7 +9763,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9551,7 +9771,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9559,7 +9779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9567,7 +9787,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9575,7 +9795,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9583,7 +9803,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9591,7 +9811,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9599,7 +9819,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9607,7 +9827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>345</v>
       </c>
@@ -9615,7 +9835,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>346</v>
       </c>
@@ -9623,7 +9843,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>347</v>
       </c>
@@ -9631,7 +9851,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>348</v>
       </c>
@@ -9639,7 +9859,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>349</v>
       </c>
@@ -9647,7 +9867,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>350</v>
       </c>
@@ -9655,7 +9875,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>351</v>
       </c>
@@ -9663,7 +9883,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>352</v>
       </c>
@@ -9671,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>353</v>
       </c>
@@ -9679,7 +9899,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>354</v>
       </c>
@@ -9687,7 +9907,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>355</v>
       </c>
@@ -9695,7 +9915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>356</v>
       </c>
@@ -9703,7 +9923,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>357</v>
       </c>
@@ -9711,7 +9931,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>358</v>
       </c>
@@ -9719,7 +9939,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>359</v>
       </c>
@@ -9727,7 +9947,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>360</v>
       </c>
@@ -9735,7 +9955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>361</v>
       </c>
@@ -9743,7 +9963,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>362</v>
       </c>
@@ -9751,7 +9971,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>363</v>
       </c>
@@ -9759,7 +9979,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>364</v>
       </c>
@@ -9767,7 +9987,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>365</v>
       </c>
@@ -9775,7 +9995,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>366</v>
       </c>
@@ -9783,7 +10003,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>367</v>
       </c>
@@ -9791,7 +10011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>368</v>
       </c>
@@ -9799,7 +10019,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>369</v>
       </c>
@@ -9807,7 +10027,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>370</v>
       </c>
@@ -9815,7 +10035,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>371</v>
       </c>
@@ -9823,7 +10043,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>372</v>
       </c>
@@ -9831,7 +10051,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>373</v>
       </c>
@@ -9839,7 +10059,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>374</v>
       </c>
@@ -9847,7 +10067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>375</v>
       </c>
@@ -9855,7 +10075,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>376</v>
       </c>
@@ -9863,7 +10083,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>377</v>
       </c>
@@ -9871,7 +10091,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>378</v>
       </c>
@@ -9879,7 +10099,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>379</v>
       </c>
@@ -9887,7 +10107,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>380</v>
       </c>
@@ -9895,7 +10115,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>381</v>
       </c>
@@ -9903,7 +10123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>382</v>
       </c>
@@ -9911,7 +10131,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>383</v>
       </c>
@@ -9919,7 +10139,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>384</v>
       </c>
@@ -9927,7 +10147,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>385</v>
       </c>
@@ -9935,7 +10155,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>386</v>
       </c>
@@ -9943,7 +10163,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>387</v>
       </c>
@@ -9951,7 +10171,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>388</v>
       </c>
@@ -9959,7 +10179,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>389</v>
       </c>
@@ -9967,7 +10187,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>390</v>
       </c>
@@ -9975,7 +10195,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>391</v>
       </c>
@@ -9983,7 +10203,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>392</v>
       </c>
@@ -9991,7 +10211,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>393</v>
       </c>
@@ -9999,7 +10219,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>394</v>
       </c>
@@ -10007,7 +10227,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>395</v>
       </c>
@@ -10015,7 +10235,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>396</v>
       </c>
@@ -10023,7 +10243,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>397</v>
       </c>
@@ -10031,7 +10251,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>398</v>
       </c>
@@ -10039,7 +10259,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>399</v>
       </c>
@@ -10047,7 +10267,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>400</v>
       </c>
@@ -10055,7 +10275,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>401</v>
       </c>
@@ -10063,7 +10283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>402</v>
       </c>
@@ -10071,7 +10291,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>403</v>
       </c>
@@ -10079,7 +10299,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>404</v>
       </c>
@@ -10087,7 +10307,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>405</v>
       </c>
@@ -10095,7 +10315,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>406</v>
       </c>
@@ -10103,7 +10323,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>407</v>
       </c>
@@ -10111,7 +10331,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>408</v>
       </c>
@@ -10119,7 +10339,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>409</v>
       </c>
@@ -10127,7 +10347,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>410</v>
       </c>
@@ -10135,7 +10355,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>411</v>
       </c>
@@ -10143,7 +10363,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>412</v>
       </c>
@@ -10151,7 +10371,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>413</v>
       </c>
@@ -10159,7 +10379,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>414</v>
       </c>
@@ -10167,7 +10387,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>415</v>
       </c>
@@ -10175,7 +10395,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>416</v>
       </c>
@@ -10183,7 +10403,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>417</v>
       </c>
@@ -10191,7 +10411,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>418</v>
       </c>
@@ -10199,7 +10419,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>419</v>
       </c>
@@ -10207,7 +10427,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>420</v>
       </c>
@@ -10215,7 +10435,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>421</v>
       </c>
@@ -10223,7 +10443,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>422</v>
       </c>
@@ -10231,7 +10451,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>423</v>
       </c>
@@ -10239,7 +10459,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>424</v>
       </c>
@@ -10247,7 +10467,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>425</v>
       </c>
@@ -10255,7 +10475,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>426</v>
       </c>
@@ -10263,7 +10483,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>427</v>
       </c>
@@ -10271,7 +10491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>428</v>
       </c>
@@ -10279,7 +10499,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>429</v>
       </c>
@@ -10287,7 +10507,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>430</v>
       </c>
@@ -10295,7 +10515,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>431</v>
       </c>
@@ -10303,7 +10523,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>432</v>
       </c>
@@ -10311,7 +10531,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>433</v>
       </c>
@@ -10319,7 +10539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>434</v>
       </c>
@@ -10327,7 +10547,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>435</v>
       </c>
@@ -10335,7 +10555,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>436</v>
       </c>
@@ -10343,7 +10563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>437</v>
       </c>
@@ -10351,7 +10571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>438</v>
       </c>
@@ -10359,7 +10579,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>439</v>
       </c>
@@ -10367,7 +10587,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>440</v>
       </c>
@@ -10375,7 +10595,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>441</v>
       </c>
@@ -10383,7 +10603,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>442</v>
       </c>
@@ -10391,7 +10611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>443</v>
       </c>
@@ -10399,7 +10619,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>444</v>
       </c>
@@ -10407,7 +10627,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>445</v>
       </c>
@@ -10415,7 +10635,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>446</v>
       </c>
@@ -10423,7 +10643,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>447</v>
       </c>
@@ -10431,7 +10651,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>448</v>
       </c>
@@ -10439,7 +10659,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>449</v>
       </c>
@@ -10447,7 +10667,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>450</v>
       </c>
@@ -10455,7 +10675,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>451</v>
       </c>
@@ -10463,7 +10683,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>452</v>
       </c>
@@ -10471,7 +10691,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>453</v>
       </c>
@@ -10479,7 +10699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>454</v>
       </c>
@@ -10487,7 +10707,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>455</v>
       </c>
@@ -10495,7 +10715,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>456</v>
       </c>
@@ -10503,7 +10723,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>457</v>
       </c>
@@ -10511,7 +10731,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>458</v>
       </c>
@@ -10519,7 +10739,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>459</v>
       </c>
@@ -10527,7 +10747,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>460</v>
       </c>
@@ -10535,7 +10755,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>461</v>
       </c>
@@ -10543,7 +10763,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>462</v>
       </c>
@@ -10551,7 +10771,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>463</v>
       </c>
@@ -10559,7 +10779,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>464</v>
       </c>
@@ -10567,7 +10787,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>465</v>
       </c>
@@ -10575,7 +10795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>466</v>
       </c>
@@ -10583,7 +10803,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>467</v>
       </c>
@@ -10591,7 +10811,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>468</v>
       </c>
@@ -10599,7 +10819,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>469</v>
       </c>
@@ -10607,7 +10827,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>470</v>
       </c>
@@ -10615,7 +10835,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>471</v>
       </c>
@@ -10623,7 +10843,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>472</v>
       </c>
@@ -10631,7 +10851,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>473</v>
       </c>
@@ -10639,7 +10859,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>474</v>
       </c>
@@ -10647,7 +10867,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>475</v>
       </c>
@@ -10655,7 +10875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>476</v>
       </c>
@@ -10663,7 +10883,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>477</v>
       </c>
@@ -10671,7 +10891,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>478</v>
       </c>
@@ -10679,7 +10899,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>479</v>
       </c>
@@ -10687,7 +10907,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>480</v>
       </c>
@@ -10695,7 +10915,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>481</v>
       </c>
@@ -10703,7 +10923,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>482</v>
       </c>
@@ -10711,7 +10931,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>483</v>
       </c>
@@ -10719,7 +10939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>484</v>
       </c>
@@ -10727,7 +10947,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>485</v>
       </c>
@@ -10735,7 +10955,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>486</v>
       </c>
@@ -10743,7 +10963,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>487</v>
       </c>
@@ -10751,7 +10971,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>488</v>
       </c>
@@ -10759,7 +10979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>489</v>
       </c>
@@ -10767,7 +10987,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>490</v>
       </c>
@@ -10775,7 +10995,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>491</v>
       </c>
@@ -10783,7 +11003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>492</v>
       </c>
@@ -10791,7 +11011,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>493</v>
       </c>
@@ -10799,7 +11019,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>494</v>
       </c>
@@ -10807,7 +11027,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>495</v>
       </c>
@@ -10815,7 +11035,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>496</v>
       </c>
@@ -10823,7 +11043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>497</v>
       </c>
@@ -10831,7 +11051,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>498</v>
       </c>
@@ -10839,7 +11059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>499</v>
       </c>
@@ -10847,7 +11067,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>500</v>
       </c>
@@ -10855,7 +11075,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>501</v>
       </c>
@@ -10863,7 +11083,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>502</v>
       </c>
@@ -10871,7 +11091,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>503</v>
       </c>
@@ -10879,7 +11099,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>504</v>
       </c>
@@ -10887,7 +11107,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>505</v>
       </c>
@@ -10895,7 +11115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>506</v>
       </c>
@@ -10903,7 +11123,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>507</v>
       </c>
@@ -10911,7 +11131,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>508</v>
       </c>
@@ -10919,7 +11139,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>509</v>
       </c>
@@ -10927,7 +11147,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>510</v>
       </c>
@@ -10935,7 +11155,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>511</v>
       </c>
@@ -10943,7 +11163,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>512</v>
       </c>
@@ -10951,7 +11171,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>513</v>
       </c>
@@ -10959,7 +11179,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>514</v>
       </c>
@@ -10967,7 +11187,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>515</v>
       </c>
@@ -10975,7 +11195,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>516</v>
       </c>
@@ -10983,7 +11203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>517</v>
       </c>
@@ -10991,7 +11211,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>518</v>
       </c>
@@ -10999,7 +11219,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>519</v>
       </c>
@@ -11007,7 +11227,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>520</v>
       </c>
@@ -11015,7 +11235,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>521</v>
       </c>
@@ -11023,7 +11243,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>522</v>
       </c>
@@ -11031,7 +11251,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>523</v>
       </c>
@@ -11039,7 +11259,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>524</v>
       </c>
@@ -11047,7 +11267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>525</v>
       </c>
@@ -11055,7 +11275,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>526</v>
       </c>
@@ -11063,7 +11283,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>527</v>
       </c>
@@ -11071,7 +11291,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>528</v>
       </c>
@@ -11079,7 +11299,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>529</v>
       </c>
@@ -11087,7 +11307,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>530</v>
       </c>
@@ -11095,7 +11315,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>531</v>
       </c>
@@ -11103,7 +11323,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>532</v>
       </c>
@@ -11111,7 +11331,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>533</v>
       </c>
@@ -11119,7 +11339,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>534</v>
       </c>
@@ -11127,7 +11347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>535</v>
       </c>
@@ -11135,7 +11355,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>536</v>
       </c>
@@ -11143,7 +11363,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>537</v>
       </c>
@@ -11151,7 +11371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>538</v>
       </c>
@@ -11159,7 +11379,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>539</v>
       </c>
@@ -11167,7 +11387,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>540</v>
       </c>
@@ -11175,7 +11395,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>541</v>
       </c>
@@ -11183,7 +11403,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>542</v>
       </c>
@@ -11191,7 +11411,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>543</v>
       </c>
@@ -11199,7 +11419,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>544</v>
       </c>
@@ -11207,7 +11427,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>545</v>
       </c>
@@ -11215,7 +11435,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>546</v>
       </c>
@@ -11223,7 +11443,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>547</v>
       </c>
@@ -11231,7 +11451,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>548</v>
       </c>
@@ -11239,7 +11459,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>549</v>
       </c>
@@ -11247,7 +11467,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>550</v>
       </c>
@@ -11255,7 +11475,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>551</v>
       </c>
@@ -11263,7 +11483,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>552</v>
       </c>
@@ -11271,7 +11491,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>553</v>
       </c>
@@ -11279,7 +11499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>554</v>
       </c>
@@ -11287,7 +11507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>555</v>
       </c>
@@ -11295,7 +11515,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>556</v>
       </c>
@@ -11303,7 +11523,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>557</v>
       </c>
@@ -11311,7 +11531,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>558</v>
       </c>
@@ -11319,7 +11539,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>559</v>
       </c>
@@ -11327,7 +11547,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>560</v>
       </c>
@@ -11335,7 +11555,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>561</v>
       </c>
@@ -11343,7 +11563,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>562</v>
       </c>
@@ -11351,7 +11571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>563</v>
       </c>
@@ -11359,7 +11579,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>564</v>
       </c>
@@ -11367,7 +11587,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>565</v>
       </c>
@@ -11375,7 +11595,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>566</v>
       </c>
@@ -11383,7 +11603,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>567</v>
       </c>
@@ -11391,7 +11611,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>568</v>
       </c>
@@ -11399,7 +11619,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>569</v>
       </c>
@@ -11407,7 +11627,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>570</v>
       </c>
@@ -11415,7 +11635,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>571</v>
       </c>
@@ -11423,7 +11643,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>572</v>
       </c>
@@ -11431,7 +11651,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>573</v>
       </c>
@@ -11439,7 +11659,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>574</v>
       </c>
@@ -11447,7 +11667,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>575</v>
       </c>
@@ -11455,7 +11675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>576</v>
       </c>
@@ -11463,7 +11683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>577</v>
       </c>
@@ -11471,7 +11691,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>578</v>
       </c>
@@ -11479,7 +11699,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>579</v>
       </c>
@@ -11487,7 +11707,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>580</v>
       </c>
@@ -11495,7 +11715,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>581</v>
       </c>
@@ -11503,7 +11723,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>582</v>
       </c>
@@ -11511,7 +11731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>583</v>
       </c>
@@ -11519,7 +11739,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>584</v>
       </c>
@@ -11527,7 +11747,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>585</v>
       </c>
@@ -11535,7 +11755,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>586</v>
       </c>
@@ -11543,7 +11763,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>587</v>
       </c>
@@ -11551,7 +11771,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>588</v>
       </c>
@@ -11559,7 +11779,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>589</v>
       </c>
@@ -11567,7 +11787,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>590</v>
       </c>
@@ -11575,7 +11795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>591</v>
       </c>
@@ -11583,7 +11803,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>592</v>
       </c>
@@ -11591,7 +11811,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>593</v>
       </c>
@@ -11599,7 +11819,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>594</v>
       </c>
@@ -11607,7 +11827,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>595</v>
       </c>
@@ -11615,7 +11835,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>596</v>
       </c>
@@ -11623,7 +11843,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>597</v>
       </c>
@@ -11631,7 +11851,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>598</v>
       </c>
@@ -11639,7 +11859,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>599</v>
       </c>
@@ -11647,7 +11867,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>600</v>
       </c>
@@ -11655,7 +11875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>601</v>
       </c>
@@ -11663,7 +11883,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>602</v>
       </c>
@@ -11671,7 +11891,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>603</v>
       </c>
@@ -11679,7 +11899,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>604</v>
       </c>
@@ -11687,7 +11907,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>605</v>
       </c>
@@ -11695,7 +11915,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>606</v>
       </c>
@@ -11703,7 +11923,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>607</v>
       </c>
@@ -11711,7 +11931,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>608</v>
       </c>
@@ -11719,7 +11939,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>609</v>
       </c>
@@ -11727,7 +11947,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>610</v>
       </c>
@@ -11735,7 +11955,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>611</v>
       </c>
@@ -11743,7 +11963,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>612</v>
       </c>
@@ -11751,7 +11971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>613</v>
       </c>
@@ -11759,7 +11979,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>614</v>
       </c>
@@ -11767,7 +11987,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>615</v>
       </c>
@@ -11775,7 +11995,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>616</v>
       </c>
@@ -11783,7 +12003,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>617</v>
       </c>
@@ -11791,7 +12011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>618</v>
       </c>
@@ -11799,7 +12019,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>619</v>
       </c>
@@ -11807,7 +12027,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>620</v>
       </c>
@@ -11815,7 +12035,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>621</v>
       </c>
@@ -11823,7 +12043,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>622</v>
       </c>
@@ -11831,7 +12051,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>623</v>
       </c>
@@ -11839,7 +12059,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>624</v>
       </c>
@@ -11847,7 +12067,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>625</v>
       </c>
@@ -11855,7 +12075,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>626</v>
       </c>
@@ -11863,7 +12083,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>627</v>
       </c>
@@ -11871,7 +12091,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>628</v>
       </c>
@@ -11879,7 +12099,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>629</v>
       </c>
@@ -11887,7 +12107,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>630</v>
       </c>
@@ -11895,7 +12115,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>631</v>
       </c>
@@ -11903,7 +12123,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>632</v>
       </c>
@@ -11911,7 +12131,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>633</v>
       </c>
@@ -11919,7 +12139,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>634</v>
       </c>
@@ -11927,7 +12147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>635</v>
       </c>
@@ -11935,7 +12155,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>636</v>
       </c>
@@ -11943,7 +12163,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>637</v>
       </c>
@@ -11951,7 +12171,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>638</v>
       </c>
@@ -11959,7 +12179,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>639</v>
       </c>
@@ -11967,7 +12187,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>640</v>
       </c>
@@ -11975,7 +12195,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>641</v>
       </c>
@@ -11983,7 +12203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>642</v>
       </c>
@@ -11991,7 +12211,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>643</v>
       </c>
@@ -11999,7 +12219,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>644</v>
       </c>
@@ -12007,7 +12227,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>645</v>
       </c>
@@ -12015,7 +12235,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>646</v>
       </c>
@@ -12023,7 +12243,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>647</v>
       </c>
@@ -12031,7 +12251,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>648</v>
       </c>
@@ -12039,7 +12259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>649</v>
       </c>
@@ -12047,7 +12267,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>650</v>
       </c>
@@ -12055,7 +12275,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>651</v>
       </c>
@@ -12063,7 +12283,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>652</v>
       </c>
@@ -12071,7 +12291,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>653</v>
       </c>
@@ -12079,7 +12299,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>654</v>
       </c>
@@ -12087,7 +12307,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>655</v>
       </c>
@@ -12095,7 +12315,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>656</v>
       </c>
@@ -12103,7 +12323,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>657</v>
       </c>
@@ -12111,7 +12331,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>658</v>
       </c>
@@ -12119,7 +12339,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>659</v>
       </c>
@@ -12127,7 +12347,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>660</v>
       </c>
@@ -12135,7 +12355,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>661</v>
       </c>
@@ -12143,7 +12363,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>662</v>
       </c>
@@ -12151,7 +12371,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>663</v>
       </c>
@@ -12159,7 +12379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>664</v>
       </c>
@@ -12167,7 +12387,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>665</v>
       </c>
@@ -12175,7 +12395,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>666</v>
       </c>
@@ -12183,7 +12403,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>667</v>
       </c>
@@ -12191,7 +12411,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>668</v>
       </c>
@@ -12199,7 +12419,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>669</v>
       </c>
@@ -12207,7 +12427,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>670</v>
       </c>
@@ -12215,7 +12435,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>671</v>
       </c>
@@ -12223,7 +12443,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>672</v>
       </c>
@@ -12231,7 +12451,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>673</v>
       </c>
@@ -12239,7 +12459,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>674</v>
       </c>
@@ -12247,7 +12467,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>675</v>
       </c>
@@ -12255,7 +12475,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>676</v>
       </c>
@@ -12263,7 +12483,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>677</v>
       </c>
@@ -12271,7 +12491,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>678</v>
       </c>
@@ -12279,7 +12499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>679</v>
       </c>
@@ -12287,7 +12507,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>680</v>
       </c>
@@ -12295,7 +12515,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>681</v>
       </c>
@@ -12303,7 +12523,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>682</v>
       </c>
@@ -12311,7 +12531,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>683</v>
       </c>
@@ -12319,7 +12539,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>684</v>
       </c>
@@ -12327,7 +12547,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>685</v>
       </c>
@@ -12335,7 +12555,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>686</v>
       </c>
@@ -12343,7 +12563,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>687</v>
       </c>
@@ -12351,7 +12571,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>688</v>
       </c>
@@ -12359,7 +12579,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>689</v>
       </c>
@@ -12367,7 +12587,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>690</v>
       </c>
@@ -12375,7 +12595,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>691</v>
       </c>
@@ -12383,7 +12603,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>692</v>
       </c>
@@ -12391,7 +12611,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>693</v>
       </c>
@@ -12399,7 +12619,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>694</v>
       </c>
@@ -12407,7 +12627,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>695</v>
       </c>
@@ -12415,7 +12635,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>696</v>
       </c>
@@ -12423,7 +12643,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>697</v>
       </c>
@@ -12431,7 +12651,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>698</v>
       </c>
@@ -12439,7 +12659,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>699</v>
       </c>
@@ -12447,7 +12667,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>700</v>
       </c>
@@ -12455,7 +12675,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>701</v>
       </c>
@@ -12463,7 +12683,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>702</v>
       </c>
@@ -12471,7 +12691,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>703</v>
       </c>
@@ -12479,7 +12699,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>704</v>
       </c>
@@ -12487,7 +12707,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>705</v>
       </c>
@@ -12495,7 +12715,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>706</v>
       </c>
@@ -12503,7 +12723,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>707</v>
       </c>
@@ -12511,7 +12731,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>708</v>
       </c>
@@ -12519,7 +12739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>709</v>
       </c>
@@ -12527,7 +12747,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>710</v>
       </c>
@@ -12535,7 +12755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>711</v>
       </c>
@@ -12543,7 +12763,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>712</v>
       </c>
@@ -12551,7 +12771,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>713</v>
       </c>
@@ -12559,7 +12779,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>714</v>
       </c>
@@ -12567,7 +12787,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>715</v>
       </c>
@@ -12575,7 +12795,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>716</v>
       </c>
@@ -12583,7 +12803,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>717</v>
       </c>
@@ -12591,7 +12811,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>718</v>
       </c>
@@ -12599,7 +12819,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>719</v>
       </c>
@@ -12607,7 +12827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>720</v>
       </c>
@@ -12615,7 +12835,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>721</v>
       </c>
@@ -12623,7 +12843,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>722</v>
       </c>
@@ -12631,7 +12851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>723</v>
       </c>
@@ -12639,7 +12859,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>724</v>
       </c>
@@ -12647,7 +12867,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>725</v>
       </c>
@@ -12655,7 +12875,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>726</v>
       </c>
@@ -12663,7 +12883,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>727</v>
       </c>
@@ -12671,7 +12891,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>728</v>
       </c>
@@ -12679,7 +12899,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>729</v>
       </c>
@@ -12687,7 +12907,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>730</v>
       </c>
@@ -12695,7 +12915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>731</v>
       </c>
@@ -12703,7 +12923,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>732</v>
       </c>
@@ -12711,7 +12931,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>733</v>
       </c>
@@ -12719,7 +12939,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>734</v>
       </c>
@@ -12727,7 +12947,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>735</v>
       </c>
@@ -12735,7 +12955,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>736</v>
       </c>
@@ -12743,7 +12963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>737</v>
       </c>
@@ -12751,7 +12971,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>738</v>
       </c>
@@ -12759,7 +12979,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>739</v>
       </c>
@@ -12767,7 +12987,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>740</v>
       </c>
@@ -12775,7 +12995,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>741</v>
       </c>
@@ -12783,7 +13003,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>742</v>
       </c>
@@ -12791,7 +13011,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>743</v>
       </c>
@@ -12799,7 +13019,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>744</v>
       </c>
@@ -12807,7 +13027,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>745</v>
       </c>
@@ -12815,7 +13035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>746</v>
       </c>
@@ -12823,7 +13043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>747</v>
       </c>
@@ -12831,7 +13051,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>748</v>
       </c>
@@ -12839,7 +13059,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>749</v>
       </c>
@@ -12847,7 +13067,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>750</v>
       </c>
@@ -12855,7 +13075,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>751</v>
       </c>
@@ -12863,7 +13083,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>752</v>
       </c>
@@ -12871,7 +13091,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>753</v>
       </c>
@@ -12879,7 +13099,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>754</v>
       </c>
@@ -12887,7 +13107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>755</v>
       </c>
@@ -12895,7 +13115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>756</v>
       </c>
@@ -12903,7 +13123,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>757</v>
       </c>
@@ -12911,7 +13131,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>758</v>
       </c>
@@ -12919,7 +13139,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>759</v>
       </c>
@@ -12927,7 +13147,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>760</v>
       </c>
@@ -12935,7 +13155,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>761</v>
       </c>
@@ -12943,7 +13163,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>762</v>
       </c>
@@ -12951,7 +13171,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>763</v>
       </c>
@@ -12959,7 +13179,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>764</v>
       </c>
@@ -12967,7 +13187,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>765</v>
       </c>
@@ -12975,7 +13195,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>766</v>
       </c>
@@ -12983,7 +13203,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>767</v>
       </c>
@@ -12991,7 +13211,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>768</v>
       </c>
@@ -12999,7 +13219,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>769</v>
       </c>
@@ -13007,7 +13227,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>770</v>
       </c>
@@ -13015,7 +13235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>771</v>
       </c>
@@ -13023,7 +13243,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>772</v>
       </c>
@@ -13031,7 +13251,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>773</v>
       </c>
@@ -13039,7 +13259,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>774</v>
       </c>
@@ -13047,7 +13267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>775</v>
       </c>
@@ -13055,7 +13275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>776</v>
       </c>
@@ -13063,7 +13283,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>777</v>
       </c>
@@ -13071,7 +13291,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>778</v>
       </c>
@@ -13079,7 +13299,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>779</v>
       </c>
@@ -13087,7 +13307,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>780</v>
       </c>
@@ -13095,7 +13315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>781</v>
       </c>
@@ -13103,7 +13323,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>782</v>
       </c>
@@ -13111,7 +13331,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>783</v>
       </c>
@@ -13119,7 +13339,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>784</v>
       </c>
@@ -13127,7 +13347,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>785</v>
       </c>
@@ -13135,7 +13355,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>786</v>
       </c>
@@ -13143,7 +13363,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>787</v>
       </c>
@@ -13151,7 +13371,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>788</v>
       </c>
@@ -13159,7 +13379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>789</v>
       </c>
@@ -13167,7 +13387,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>790</v>
       </c>
@@ -13175,7 +13395,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>791</v>
       </c>
@@ -13183,7 +13403,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>792</v>
       </c>
@@ -13191,7 +13411,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>793</v>
       </c>
@@ -13199,7 +13419,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>794</v>
       </c>
@@ -13207,7 +13427,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>795</v>
       </c>
@@ -13215,7 +13435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>796</v>
       </c>
@@ -13223,7 +13443,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>797</v>
       </c>
@@ -13231,7 +13451,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>798</v>
       </c>
@@ -13239,7 +13459,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>799</v>
       </c>
@@ -13247,7 +13467,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>800</v>
       </c>
@@ -13255,7 +13475,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>801</v>
       </c>
@@ -13263,7 +13483,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>802</v>
       </c>
@@ -13271,7 +13491,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>803</v>
       </c>
@@ -13279,7 +13499,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>804</v>
       </c>
@@ -13287,7 +13507,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>805</v>
       </c>
@@ -13295,7 +13515,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>806</v>
       </c>
@@ -13303,7 +13523,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>807</v>
       </c>
@@ -13311,7 +13531,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>808</v>
       </c>
@@ -13319,7 +13539,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>809</v>
       </c>
@@ -13327,7 +13547,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>810</v>
       </c>
@@ -13335,7 +13555,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>811</v>
       </c>
@@ -13343,7 +13563,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>812</v>
       </c>
@@ -13351,7 +13571,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>813</v>
       </c>
@@ -13359,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>814</v>
       </c>
@@ -13367,7 +13587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>815</v>
       </c>
@@ -13375,7 +13595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>816</v>
       </c>
@@ -13383,7 +13603,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>817</v>
       </c>
@@ -13391,7 +13611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>818</v>
       </c>
@@ -13399,7 +13619,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>819</v>
       </c>
@@ -13407,7 +13627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>820</v>
       </c>
@@ -13415,7 +13635,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>821</v>
       </c>
@@ -13423,7 +13643,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>822</v>
       </c>
@@ -13431,7 +13651,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>823</v>
       </c>
@@ -13439,7 +13659,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>824</v>
       </c>
@@ -13447,7 +13667,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>825</v>
       </c>
@@ -13455,7 +13675,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>826</v>
       </c>
@@ -13463,7 +13683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>827</v>
       </c>
@@ -13471,7 +13691,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>828</v>
       </c>
@@ -13479,7 +13699,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>829</v>
       </c>
@@ -13487,7 +13707,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>830</v>
       </c>
@@ -13495,7 +13715,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>831</v>
       </c>
@@ -13503,7 +13723,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>832</v>
       </c>
@@ -13511,7 +13731,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>833</v>
       </c>
@@ -13519,7 +13739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>834</v>
       </c>
@@ -13527,7 +13747,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>835</v>
       </c>
@@ -13535,7 +13755,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>836</v>
       </c>
@@ -13543,7 +13763,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>837</v>
       </c>
@@ -13551,7 +13771,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>838</v>
       </c>
@@ -13559,7 +13779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>839</v>
       </c>
@@ -13567,7 +13787,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>840</v>
       </c>
@@ -13575,7 +13795,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>841</v>
       </c>
@@ -13583,7 +13803,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>842</v>
       </c>
@@ -13591,7 +13811,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>843</v>
       </c>
@@ -13599,7 +13819,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>844</v>
       </c>
@@ -13607,7 +13827,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>845</v>
       </c>
@@ -13615,7 +13835,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>846</v>
       </c>
@@ -13623,7 +13843,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>847</v>
       </c>
@@ -13631,7 +13851,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>848</v>
       </c>
@@ -13639,7 +13859,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>849</v>
       </c>
@@ -13647,7 +13867,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>850</v>
       </c>
@@ -13655,7 +13875,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>851</v>
       </c>
@@ -13663,7 +13883,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>852</v>
       </c>
@@ -13671,7 +13891,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>853</v>
       </c>
@@ -13679,7 +13899,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>854</v>
       </c>
@@ -13687,7 +13907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>855</v>
       </c>
@@ -13695,7 +13915,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>856</v>
       </c>
@@ -13703,7 +13923,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>857</v>
       </c>
@@ -13711,7 +13931,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>858</v>
       </c>
@@ -13719,7 +13939,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>859</v>
       </c>
@@ -13727,7 +13947,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>860</v>
       </c>
@@ -13735,7 +13955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>861</v>
       </c>
@@ -13743,7 +13963,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>862</v>
       </c>
@@ -13751,7 +13971,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>863</v>
       </c>
@@ -13759,7 +13979,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>864</v>
       </c>
@@ -13767,7 +13987,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>865</v>
       </c>
@@ -13775,7 +13995,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>866</v>
       </c>
@@ -13783,7 +14003,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>867</v>
       </c>
@@ -13791,7 +14011,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>868</v>
       </c>
@@ -13799,7 +14019,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>869</v>
       </c>
@@ -13807,7 +14027,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>870</v>
       </c>
@@ -13815,7 +14035,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>871</v>
       </c>
@@ -13823,7 +14043,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>872</v>
       </c>
@@ -13831,7 +14051,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>873</v>
       </c>
@@ -13839,7 +14059,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>874</v>
       </c>
@@ -13847,7 +14067,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>875</v>
       </c>
@@ -13855,7 +14075,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>876</v>
       </c>
@@ -13863,7 +14083,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>877</v>
       </c>
@@ -13871,7 +14091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>878</v>
       </c>
@@ -13879,7 +14099,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>879</v>
       </c>
@@ -13887,7 +14107,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>880</v>
       </c>
@@ -13895,7 +14115,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>881</v>
       </c>
@@ -13903,7 +14123,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>882</v>
       </c>
@@ -13911,7 +14131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>883</v>
       </c>
@@ -13919,7 +14139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>884</v>
       </c>
@@ -13927,7 +14147,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>885</v>
       </c>
@@ -13935,7 +14155,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>886</v>
       </c>
@@ -13943,7 +14163,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>887</v>
       </c>
@@ -13951,7 +14171,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>888</v>
       </c>
@@ -13959,7 +14179,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>889</v>
       </c>
@@ -13967,7 +14187,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>890</v>
       </c>
@@ -13975,7 +14195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>891</v>
       </c>
@@ -13983,7 +14203,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>892</v>
       </c>
@@ -13991,7 +14211,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>893</v>
       </c>
@@ -13999,7 +14219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>894</v>
       </c>
@@ -14007,7 +14227,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>895</v>
       </c>
@@ -14015,7 +14235,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>896</v>
       </c>
@@ -14023,7 +14243,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>897</v>
       </c>
@@ -14031,7 +14251,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>898</v>
       </c>
@@ -14039,7 +14259,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>899</v>
       </c>
@@ -14047,7 +14267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>900</v>
       </c>
@@ -14055,7 +14275,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>901</v>
       </c>
@@ -14063,7 +14283,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>902</v>
       </c>
@@ -14071,7 +14291,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>903</v>
       </c>
@@ -14079,7 +14299,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>904</v>
       </c>
@@ -14087,7 +14307,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>905</v>
       </c>
@@ -14095,7 +14315,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>906</v>
       </c>
@@ -14103,7 +14323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>907</v>
       </c>
@@ -14111,7 +14331,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>908</v>
       </c>
@@ -14119,7 +14339,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>909</v>
       </c>
@@ -14127,7 +14347,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>910</v>
       </c>
@@ -14135,7 +14355,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>911</v>
       </c>
@@ -14143,7 +14363,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>912</v>
       </c>
@@ -14151,7 +14371,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>913</v>
       </c>
@@ -14159,7 +14379,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>914</v>
       </c>
@@ -14167,7 +14387,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>915</v>
       </c>
@@ -14175,7 +14395,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>916</v>
       </c>
@@ -14183,7 +14403,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>917</v>
       </c>
@@ -14191,7 +14411,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>918</v>
       </c>
@@ -14199,7 +14419,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>919</v>
       </c>
@@ -14207,7 +14427,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>920</v>
       </c>
@@ -14215,7 +14435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>921</v>
       </c>
@@ -14223,7 +14443,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>922</v>
       </c>
@@ -14231,7 +14451,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>923</v>
       </c>
@@ -14239,7 +14459,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>924</v>
       </c>
@@ -14247,7 +14467,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>925</v>
       </c>
@@ -14255,7 +14475,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>926</v>
       </c>
@@ -14263,7 +14483,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>927</v>
       </c>
@@ -14271,7 +14491,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>928</v>
       </c>
@@ -14279,7 +14499,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>929</v>
       </c>
@@ -14287,7 +14507,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>930</v>
       </c>
@@ -14295,7 +14515,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>931</v>
       </c>
@@ -14303,7 +14523,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>932</v>
       </c>
@@ -14311,7 +14531,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>933</v>
       </c>
@@ -14319,7 +14539,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>934</v>
       </c>
@@ -14327,7 +14547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>935</v>
       </c>
@@ -14335,7 +14555,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>936</v>
       </c>
@@ -14343,7 +14563,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>937</v>
       </c>
@@ -14351,7 +14571,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>938</v>
       </c>
@@ -14359,7 +14579,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>939</v>
       </c>
@@ -14367,7 +14587,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>940</v>
       </c>
@@ -14375,7 +14595,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>941</v>
       </c>
@@ -14383,7 +14603,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>942</v>
       </c>
@@ -14391,7 +14611,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>943</v>
       </c>
@@ -14399,7 +14619,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>944</v>
       </c>
@@ -14407,7 +14627,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>945</v>
       </c>
@@ -14415,7 +14635,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>946</v>
       </c>
@@ -14423,7 +14643,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>947</v>
       </c>
@@ -14431,7 +14651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>948</v>
       </c>
@@ -14439,7 +14659,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>949</v>
       </c>
@@ -14447,7 +14667,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>950</v>
       </c>
@@ -14455,7 +14675,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>951</v>
       </c>
@@ -14463,7 +14683,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>952</v>
       </c>
@@ -14471,7 +14691,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>953</v>
       </c>
@@ -14479,7 +14699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>954</v>
       </c>
@@ -14487,7 +14707,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>955</v>
       </c>
@@ -14495,7 +14715,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>956</v>
       </c>
@@ -14503,7 +14723,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>957</v>
       </c>
@@ -14511,7 +14731,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>958</v>
       </c>
@@ -14519,7 +14739,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>959</v>
       </c>
@@ -14527,7 +14747,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>960</v>
       </c>
@@ -14535,7 +14755,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>961</v>
       </c>
@@ -14543,7 +14763,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>962</v>
       </c>
@@ -14551,7 +14771,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>963</v>
       </c>
@@ -14559,7 +14779,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>964</v>
       </c>
@@ -14567,7 +14787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>965</v>
       </c>
@@ -14575,7 +14795,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>966</v>
       </c>
@@ -14583,7 +14803,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>967</v>
       </c>
@@ -14591,7 +14811,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>968</v>
       </c>
@@ -14599,7 +14819,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>969</v>
       </c>
@@ -14607,7 +14827,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>970</v>
       </c>
@@ -14615,7 +14835,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>971</v>
       </c>
@@ -14623,7 +14843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>972</v>
       </c>
@@ -14631,7 +14851,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>973</v>
       </c>
@@ -14639,7 +14859,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>974</v>
       </c>
@@ -14647,7 +14867,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>975</v>
       </c>
@@ -14655,7 +14875,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>976</v>
       </c>
@@ -14663,7 +14883,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>977</v>
       </c>
@@ -14671,7 +14891,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>978</v>
       </c>
@@ -14679,7 +14899,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>979</v>
       </c>
@@ -14687,7 +14907,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>980</v>
       </c>
@@ -14695,7 +14915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>981</v>
       </c>
@@ -14703,7 +14923,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>982</v>
       </c>
@@ -14711,7 +14931,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>983</v>
       </c>
@@ -14719,7 +14939,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>984</v>
       </c>
@@ -14727,7 +14947,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>985</v>
       </c>
@@ -14735,7 +14955,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>986</v>
       </c>
@@ -14743,7 +14963,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>987</v>
       </c>
@@ -14751,7 +14971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>988</v>
       </c>
@@ -14759,7 +14979,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>989</v>
       </c>
@@ -14767,7 +14987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>990</v>
       </c>
@@ -14775,7 +14995,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>991</v>
       </c>
@@ -14783,7 +15003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>992</v>
       </c>
@@ -14791,7 +15011,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>993</v>
       </c>
@@ -14799,7 +15019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>994</v>
       </c>
@@ -14807,7 +15027,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>995</v>
       </c>
@@ -14815,7 +15035,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>996</v>
       </c>
@@ -14823,7 +15043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>997</v>
       </c>
@@ -14831,7 +15051,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>998</v>
       </c>
@@ -14839,7 +15059,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>999</v>
       </c>
@@ -14847,7 +15067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1000</v>
       </c>

--- a/Project_1/FavoriteNumbers.xlsx
+++ b/Project_1/FavoriteNumbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annetteraven/Documents/GitHub/Stats/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A1C5D-F049-4C46-98C4-498FCCA5997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A688C-4E87-6C43-ADCD-1602E20FC513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -669,6 +669,36 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Favorite</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Random Numbers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6428,7 +6458,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -6856,9 +6886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Project_1/FavoriteNumbers.xlsx
+++ b/Project_1/FavoriteNumbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annetteraven/Documents/GitHub/Stats/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A688C-4E87-6C43-ADCD-1602E20FC513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F32A8B-C38B-BC42-8414-4439F196D6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1727,15 +1727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>46036</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6886,7 +6886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
